--- a/eDNA.xlsx
+++ b/eDNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwind\OneDrive\Writing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{00DB0990-344C-46F3-8336-1EFECC4D1F66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A79BF441-7567-4E7A-BD85-89BC479B1194}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{00DB0990-344C-46F3-8336-1EFECC4D1F66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9BA2EB71-3186-4F83-88D9-14DE5A44DC55}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BA9AB357-2094-4915-91FF-0F11EB1E6BF9}"/>
+    <workbookView xWindow="-1988" yWindow="1545" windowWidth="15391" windowHeight="9533" xr2:uid="{BA9AB357-2094-4915-91FF-0F11EB1E6BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="148">
   <si>
     <t>Lake</t>
   </si>
@@ -351,9 +351,6 @@
     <t>LG3tb0528191</t>
   </si>
   <si>
-    <t>** Is this row supposed to be here twice? Same values in both</t>
-  </si>
-  <si>
     <t>LG3tb070819</t>
   </si>
   <si>
@@ -417,9 +414,6 @@
     <t>MG1tb082319</t>
   </si>
   <si>
-    <t>** what happened to site 2?</t>
-  </si>
-  <si>
     <t>MG3</t>
   </si>
   <si>
@@ -481,9 +475,6 @@
   </si>
   <si>
     <t>MG5tb082319</t>
-  </si>
-  <si>
-    <t>** based on sample collection notes there should be a tb sample here… data entry error</t>
   </si>
 </sst>
 </file>
@@ -513,18 +504,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -539,15 +524,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -865,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF85087A-11C4-412A-B6BF-B7917F09A8E1}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1935,7 +1917,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1975,7 +1957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2015,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
@@ -2045,21 +2027,17 @@
       <c r="C54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="7">
         <v>43759</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>0</v>
       </c>
       <c r="G54" s="5">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2082,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2105,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2128,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2151,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2174,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2194,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2217,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2240,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2263,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2645,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>65</v>
       </c>
@@ -2668,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -2691,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>65</v>
       </c>
@@ -2714,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -2734,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -2780,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>65</v>
       </c>
@@ -2790,46 +2768,43 @@
       <c r="C87" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="7">
         <v>43654</v>
       </c>
       <c r="E87" s="5">
         <v>23</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <v>0</v>
       </c>
       <c r="G87" s="5">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" s="5" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="6">
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="2">
         <v>43654</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88">
         <v>23</v>
       </c>
-      <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F88" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>65</v>
       </c>
@@ -2837,7 +2812,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D89" s="2">
         <v>43654</v>
@@ -2846,47 +2821,47 @@
         <v>23</v>
       </c>
       <c r="F89" s="4">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="G89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D90" s="2">
         <v>43654</v>
       </c>
-      <c r="E90">
-        <v>23</v>
-      </c>
       <c r="F90" s="4">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="2">
-        <v>43654</v>
+        <v>43733</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -2895,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -2903,7 +2878,7 @@
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D92" s="2">
         <v>43733</v>
@@ -2918,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>65</v>
       </c>
@@ -2941,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -2964,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -2987,12 +2962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
         <v>113</v>
@@ -3000,9 +2975,6 @@
       <c r="D96" s="2">
         <v>43733</v>
       </c>
-      <c r="E96">
-        <v>19</v>
-      </c>
       <c r="F96" s="4">
         <v>0</v>
       </c>
@@ -3010,19 +2982,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D97" s="2">
         <v>43733</v>
       </c>
+      <c r="E97">
+        <v>19</v>
+      </c>
       <c r="F97" s="4">
         <v>0</v>
       </c>
@@ -3030,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>65</v>
       </c>
@@ -3038,7 +3013,7 @@
         <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D98" s="2">
         <v>43733</v>
@@ -3053,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -3076,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>65</v>
       </c>
@@ -3099,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>65</v>
       </c>
@@ -3122,12 +3097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
         <v>118</v>
@@ -3135,9 +3110,6 @@
       <c r="D102" s="2">
         <v>43733</v>
       </c>
-      <c r="E102">
-        <v>19</v>
-      </c>
       <c r="F102" s="4">
         <v>0</v>
       </c>
@@ -3145,32 +3117,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="2">
+        <v>43700</v>
+      </c>
+      <c r="E103">
+        <v>17.2</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>119</v>
       </c>
-      <c r="D103" s="2">
-        <v>43733</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>120</v>
-      </c>
-      <c r="B104" t="s">
-        <v>121</v>
       </c>
       <c r="C104" t="s">
         <v>122</v>
@@ -3182,18 +3157,18 @@
         <v>17.2</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" t="s">
         <v>120</v>
-      </c>
-      <c r="B105" t="s">
-        <v>121</v>
       </c>
       <c r="C105" t="s">
         <v>123</v>
@@ -3205,18 +3180,18 @@
         <v>17.2</v>
       </c>
       <c r="F105" s="4">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
         <v>120</v>
-      </c>
-      <c r="B106" t="s">
-        <v>121</v>
       </c>
       <c r="C106" t="s">
         <v>124</v>
@@ -3234,12 +3209,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" t="s">
         <v>120</v>
-      </c>
-      <c r="B107" t="s">
-        <v>121</v>
       </c>
       <c r="C107" t="s">
         <v>125</v>
@@ -3251,18 +3226,18 @@
         <v>17.2</v>
       </c>
       <c r="F107" s="4">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
         <v>126</v>
@@ -3270,148 +3245,142 @@
       <c r="D108" s="2">
         <v>43700</v>
       </c>
-      <c r="E108">
-        <v>17.2</v>
-      </c>
       <c r="F108" s="4">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="2">
+      <c r="C109" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="7">
         <v>43700</v>
       </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E109" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="6">
+      <c r="D110" s="7">
         <v>43700</v>
       </c>
       <c r="E110" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <v>0</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="6">
+        <v>130</v>
+      </c>
+      <c r="D111" s="7">
         <v>43700</v>
       </c>
       <c r="E111" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F111" s="7">
-        <v>0</v>
+      <c r="F111" s="6">
+        <v>0.16</v>
       </c>
       <c r="G111" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D112" s="6">
+        <v>131</v>
+      </c>
+      <c r="D112" s="7">
         <v>43700</v>
       </c>
       <c r="E112" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F112" s="7">
-        <v>0.16</v>
+      <c r="F112" s="6">
+        <v>0</v>
       </c>
       <c r="G112" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D113" s="6">
+        <v>132</v>
+      </c>
+      <c r="D113" s="7">
         <v>43700</v>
       </c>
       <c r="E113" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6">
         <v>0</v>
       </c>
       <c r="G113" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D114" s="6">
+        <v>133</v>
+      </c>
+      <c r="D114" s="7">
         <v>43700</v>
       </c>
-      <c r="E114" s="5">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F114" s="7">
+      <c r="F114" s="6">
         <v>0</v>
       </c>
       <c r="G114" s="5">
@@ -3420,19 +3389,21 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="7">
         <v>43700</v>
       </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="7">
+      <c r="E115" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F115" s="6">
         <v>0</v>
       </c>
       <c r="G115" s="5">
@@ -3440,273 +3411,250 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A116" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B116" s="8" t="s">
+      <c r="A116" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="D116" s="7">
+        <v>43700</v>
+      </c>
+      <c r="E116" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D117" s="7">
         <v>43700</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E117" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F116" s="9">
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A117" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" s="8" t="s">
+      <c r="F117" s="6">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D118" s="7">
         <v>43700</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E118" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F117" s="9">
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A118" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" s="8" t="s">
+      <c r="F118" s="6">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D119" s="7">
         <v>43700</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E119" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="F118" s="9">
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A119" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" s="8" t="s">
+      <c r="F119" s="6">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D120" s="7">
         <v>43700</v>
       </c>
-      <c r="E119" s="8">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F119" s="9">
-        <v>0</v>
-      </c>
-      <c r="G119" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A120" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="8" t="s">
+      <c r="E120" s="5"/>
+      <c r="F120" s="6">
+        <v>0</v>
+      </c>
+      <c r="G120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="10">
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="2">
         <v>43700</v>
       </c>
-      <c r="E120" s="8">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F120" s="9">
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A121" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D121" s="10">
-        <v>43700</v>
-      </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="9">
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
+      <c r="E121" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" t="s">
         <v>143</v>
-      </c>
-      <c r="C122" t="s">
-        <v>144</v>
       </c>
       <c r="D122" s="2">
         <v>43700</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="5">
         <v>18.3</v>
       </c>
-      <c r="F122" s="9">
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
+      <c r="F122" s="6">
+        <v>0</v>
+      </c>
+      <c r="G122" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" s="2">
         <v>43700</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="5">
         <v>18.3</v>
       </c>
-      <c r="F123" s="9">
-        <v>0</v>
-      </c>
-      <c r="G123" s="8">
+      <c r="F123" s="6">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D124" s="2">
         <v>43700</v>
       </c>
-      <c r="E124" s="8">
+      <c r="E124" s="5">
         <v>18.3</v>
       </c>
-      <c r="F124" s="9">
-        <v>0</v>
-      </c>
-      <c r="G124" s="8">
+      <c r="F124" s="6">
+        <v>0</v>
+      </c>
+      <c r="G124" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D125" s="2">
         <v>43700</v>
       </c>
-      <c r="E125" s="8">
+      <c r="E125" s="5">
         <v>18.3</v>
       </c>
-      <c r="F125" s="9">
-        <v>0</v>
-      </c>
-      <c r="G125" s="8">
-        <v>0</v>
+      <c r="F125" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="G125" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D126" s="2">
         <v>43700</v>
       </c>
-      <c r="E126" s="8">
-        <v>18.3</v>
-      </c>
-      <c r="F126" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="G126" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>120</v>
-      </c>
-      <c r="B127" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" t="s">
-        <v>149</v>
-      </c>
-      <c r="D127" s="2">
-        <v>43700</v>
-      </c>
-      <c r="F127" s="9">
-        <v>0</v>
-      </c>
-      <c r="G127" s="8">
+      <c r="F126" s="6">
+        <v>0</v>
+      </c>
+      <c r="G126" s="5">
         <v>0</v>
       </c>
     </row>
